--- a/Lab4 CPU/微指令自动生成(2019-4-22).xlsx
+++ b/Lab4 CPU/微指令自动生成(2019-4-22).xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\百度同步盘\0常用文件\J教学资料\实验mooc\计算机硬件系统设计\6.CPU设计实验\4.CPU设计实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenlongding/大学课程/组原/Lab-of-Computer-Organiziation/Lab4 CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1B789-D412-45FE-A63D-88C74B3A5483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FA823-4EE0-994D-A60E-EDCB86DDF460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="控制存储器数据自动生成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="58">
   <si>
     <t>微指令功能</t>
   </si>
@@ -161,11 +169,63 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>LW1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R型运算1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R型运算2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +248,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -195,6 +256,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -202,6 +264,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -209,6 +272,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -247,6 +311,14 @@
       <color rgb="FF7030A0"/>
       <name val="Segoe UI Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -356,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,55 +495,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -951,58 +1019,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="6.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="3" customWidth="1"/>
     <col min="15" max="16" width="6" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="3.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="9" style="3" customWidth="1"/>
-    <col min="20" max="20" width="22.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.625" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+    <row r="1" spans="1:22" ht="10.5" customHeight="1">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
@@ -1142,81 +1210,81 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:22" ht="17">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="30" t="str">
         <f t="shared" ref="C4:C16" si="0">TEXT(DEC2BIN(B4),"0000")</f>
         <v>0001</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="31" t="s">
+      <c r="D4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="31" t="s">
+      <c r="R4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="35" t="str">
+      <c r="T4" s="33" t="str">
         <f t="shared" ref="T4:T16" si="1">D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4</f>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U4" s="36">
+        <v>000110000000000010000</v>
+      </c>
+      <c r="U4" s="34">
         <f t="shared" ref="U4:U16" si="2">BIN2DEC(LEFT(T4,LEN(T4)-16))*256*256+BIN2DEC(MID(T4,LEN(T4)-15,8))*256+BIN2DEC(MID(T4,LEN(T4)-7,8))</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="37" t="str">
+        <v>196624</v>
+      </c>
+      <c r="V4" s="35" t="str">
         <f t="shared" ref="V4:V16" si="3">DEC2HEX(U4)</f>
-        <v>0</v>
+        <v>30010</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>44</v>
+    <row r="5" spans="1:22" ht="17">
+      <c r="A5" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -1226,16 +1294,16 @@
         <v>0010</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
+      <c r="F5" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>23</v>
@@ -1271,94 +1339,94 @@
         <v>23</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T5" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000000000000000</v>
+        <v>001100000000000000011</v>
       </c>
       <c r="U5" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>393219</v>
       </c>
       <c r="V5" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:22" ht="17">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="D6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="31" t="s">
+      <c r="H6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="35" t="str">
+      <c r="R6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U6" s="36">
+        <v>100000000001000000100</v>
+      </c>
+      <c r="U6" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="37" t="str">
+        <v>1049092</v>
+      </c>
+      <c r="V6" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100204</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1381,11 +1449,11 @@
       <c r="G7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>23</v>
+      <c r="H7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>23</v>
@@ -1393,8 +1461,8 @@
       <c r="K7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>23</v>
+      <c r="L7" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>23</v>
@@ -1411,98 +1479,98 @@
       <c r="Q7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>23</v>
+      <c r="R7" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
+        <v>000001000100000000000</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34816</v>
       </c>
       <c r="V7" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8800</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:22" ht="17">
+      <c r="A8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>5</v>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>0101</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="D8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="34" t="str">
+      <c r="R8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="32" t="str">
         <f t="shared" ref="T8" si="4">D8&amp;E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8</f>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U8" s="36">
+        <v>001100000000000000110</v>
+      </c>
+      <c r="U8" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="37" t="str">
+        <v>393222</v>
+      </c>
+      <c r="V8" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60006</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1514,7 +1582,7 @@
         <v>0110</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>23</v>
@@ -1537,11 +1605,11 @@
       <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>23</v>
+      <c r="L9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>23</v>
@@ -1555,97 +1623,101 @@
       <c r="Q9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>23</v>
+      <c r="R9" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
+        <v>100000000010000000000</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1049600</v>
       </c>
       <c r="V9" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32">
+    <row r="10" spans="1:22" ht="17">
+      <c r="A10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="30">
         <v>7</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>0111</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="D10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="34" t="str">
+      <c r="H10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U10" s="36">
+        <v>001000000000001001000</v>
+      </c>
+      <c r="U10" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="37" t="str">
+        <v>262216</v>
+      </c>
+      <c r="V10" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40048</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:22" ht="17">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1668,8 +1740,8 @@
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>23</v>
+      <c r="I11" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>23</v>
@@ -1677,8 +1749,8 @@
       <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>23</v>
+      <c r="L11" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>23</v>
@@ -1695,97 +1767,101 @@
       <c r="Q11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>23</v>
+      <c r="R11" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="T11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
+        <v>000000100100000000000</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18432</v>
       </c>
       <c r="V11" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32">
+    <row r="12" spans="1:22" ht="17">
+      <c r="A12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="30">
         <v>9</v>
       </c>
-      <c r="C12" s="33" t="str">
+      <c r="C12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="D12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="31" t="s">
+      <c r="H12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="34" t="str">
+      <c r="T12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U12" s="36">
+        <v>011000000000101000000</v>
+      </c>
+      <c r="U12" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="37" t="str">
+        <v>786752</v>
+      </c>
+      <c r="V12" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>C0140</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:22" ht="17">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="7">
         <v>10</v>
       </c>
@@ -1796,11 +1872,11 @@
       <c r="D13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>23</v>
+      <c r="E13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>33</v>
@@ -1829,103 +1905,107 @@
       <c r="O13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>23</v>
+      <c r="P13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="T13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
+        <v>011000000000011000000</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>786624</v>
       </c>
       <c r="V13" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>C00C0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32">
+    <row r="14" spans="1:22" ht="17">
+      <c r="A14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="30">
         <v>11</v>
       </c>
-      <c r="C14" s="32" t="str">
+      <c r="C14" s="30" t="str">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="31" t="s">
+      <c r="D14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="35" t="str">
+      <c r="R14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
-      </c>
-      <c r="U14" s="36">
+        <v>001100000000000001100</v>
+      </c>
+      <c r="U14" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="37" t="str">
+        <v>393228</v>
+      </c>
+      <c r="V14" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000C</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:22" ht="17">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="B15" s="7">
         <v>12</v>
       </c>
@@ -1957,8 +2037,8 @@
       <c r="K15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>23</v>
+      <c r="L15" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>23</v>
@@ -1975,96 +2055,98 @@
       <c r="Q15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>23</v>
+      <c r="R15" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="T15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000000000000</v>
+        <v>000000000100000000000</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="V15" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32">
+    <row r="16" spans="1:22" ht="17">
+      <c r="A16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="30">
         <v>13</v>
       </c>
-      <c r="C16" s="32" t="str">
+      <c r="C16" s="30" t="str">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="D16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="35" t="str">
+      <c r="H16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>100000000000001100000</v>
-      </c>
-      <c r="U16" s="36">
+        <v>000000000000000001101</v>
+      </c>
+      <c r="U16" s="34">
         <f t="shared" si="2"/>
-        <v>1048672</v>
-      </c>
-      <c r="V16" s="37" t="str">
+        <v>13</v>
+      </c>
+      <c r="V16" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>100060</v>
+        <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="17">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -2086,22 +2168,22 @@
       <c r="T17" s="16"/>
       <c r="U17" s="17"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="17">
+      <c r="A18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -2111,22 +2193,22 @@
       <c r="T18" s="18"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="17">
+      <c r="A19" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -2136,22 +2218,22 @@
       <c r="T19" s="10"/>
       <c r="U19" s="17"/>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="17">
+      <c r="A20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -2162,22 +2244,22 @@
       <c r="T20" s="10"/>
       <c r="U20" s="17"/>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:21" s="1" customFormat="1" ht="17">
+      <c r="A21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -2187,7 +2269,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="1" customFormat="1" ht="17">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -2224,32 +2306,32 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="R2:S2">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:Q16">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",S16)))</formula>
     </cfRule>
   </conditionalFormatting>
